--- a/results/qa_full-v3_cs-500_fused_hybe_qp.xlsx
+++ b/results/qa_full-v3_cs-500_fused_hybe_qp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,13 +483,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Huawei's revenue for 2021 was CNY636,807 million and for 2022 was CNY642,338 million.</t>
+          <t>Huawei's revenue in CNY for 2021 was 636,807 million and for 2022 was 642,338 million.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer's revenue figures for both years do not match the ground truth. The ground truth states Huawei's revenue was 642,338 million CNY in 2021 and 704,174 million CNY in 2022, whereas the predicted answer incorrectly states the revenue as CNY636,807 million for 2021 and CNY642,338 million for 2022, which actually corresponds to the 2021 figure from the ground truth.",
+"reason": "The predicted answer's revenue figures for both 2021 and 2022 do not match the ground truth data. The ground truth states Huawei's revenue was 642,338 million CNY in 2021 and 704,174 million CNY in 2022, whereas the predicted answer provides different figures for both years.",
 "answer": False
 }</t>
         </is>
@@ -516,13 +516,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Over the past three years by the end of 2023, Huawei invested the following percentages of its annual sales revenue into R&amp;D: 22.4% in 2021, 25.1% in 2022, and an increase in R&amp;D expenses by 6.5 percentage points from the previous year in 2023.</t>
+          <t>Over the past three years by the end of 2023, Huawei invested more than 20% of its annual sales revenue into R&amp;D.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer provides specific percentages of Huawei's annual sales revenue invested in R&amp;D for 2021 and 2022, and mentions an increase in R&amp;D expenses for 2023, all of which are above 20%. This aligns with the ground truth information that Huawei invested more than 20% of its annual sales revenue in R&amp;D over the past three years by the end of 2023.", 
+"reason": "The predicted answer matches the ground truth information, stating that Huawei invested more than 20% of its annual sales revenue into R&amp;D over the past three years by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -555,7 +555,7 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth answer, stating that HarmonyOS had been deployed on more than 800 million devices by the end of 2023.",
+"reason": "The predicted answer matches the ground truth answer exactly, stating that HarmonyOS had been deployed on more than 800 million devices by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -567,94 +567,94 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What was McDonald's global comparable sales growth rate in 2023 compared to 2022?</t>
+          <t>What was the total number of 5G users globally serviced by Huawei by the end of 2023?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nearly 11%</t>
+          <t>More than 1.5 billion users</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The global comparable sales growth rate for McDonald's in 2023 was 9%.</t>
+          <t>By the end of 2023, the total number of 5G users globally serviced by Huawei had exceeded 1.5 billion.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer is incorrect because it states a 9% growth rate, while the ground truth indicates a nearly 11% growth rate.",
-"answer": False
+"reason": "The predicted answer matches the ground truth information, stating that the total number of 5G users globally serviced by Huawei had exceeded 1.5 billion by the end of 2023.",
+"answer": True
 }</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>By how much did McDonald's systemwide sales increase since 2020 by the end of 2022?</t>
+          <t>How many people has Huawei's Seeds for the Future program benefited as of 2023?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nearly $20 billion</t>
+          <t>More than 3.4 million people</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>McDonald's Systemwide sales increased by nearly $30 billion since 2020 by the end of 2022.</t>
+          <t>As of 2023, Huawei's Seeds for the Future program has benefited over 3.4 million people.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>{
-"reason": "The key information in the predicted answer does not match the ground truth. The ground truth states an increase of nearly $20 billion, while the predicted answer states an increase of nearly $30 billion.",
-"answer": False
+"reason": "The predicted answer matches the ground truth answer, stating that Huawei's Seeds for the Future program has benefited over 3.4 million people as of 2023.",
+"answer": True
 }</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>How many active loyalty users did McDonald’s have in its top six markets by the end of 2022?</t>
+          <t>What was Huawei's net profit in CNY for the years 2021 and 2022?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Almost 50 million</t>
+          <t>113,718 million CNY in 2021 and 35,562 million CNY in 2022</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.</t>
+          <t>Huawei's net profit for the year 2021 was CNY113,718 million and for 2022 was CNY35,562 million.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth answer, stating that McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.",
+"reason": "The predicted answer matches the ground truth for both years, 2021 and 2022, in terms of Huawei's net profit in CNY.", 
 "answer": True
 }</t>
         </is>
@@ -666,28 +666,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What was Oversea-Chinese Banking Corporation Limited's net profit in 2021 and how did it change in 2022?</t>
+          <t>What operating margin percentage did Huawei achieve in 2023?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>In 2021, the net profit was S$4,858 million, and it rose to S$5.75 billion in 2022.</t>
+          <t>14.8%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Oversea-Chinese Banking Corporation Limited's net profit in 2021 was $4.86 billion and increased to $5.75 billion in 2022.</t>
+          <t>Huawei did not specify its operating margin percentage for 2023 in the provided information.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth in terms of the net profit figures for both 2021 and 2022, with a slight rounding difference for the 2021 figure ($4.86 billion vs. S$4,858 million). The essential information about the net profit in both years and its increase is accurately captured.",
+"reason": "Since the predicted answer states that Huawei did not specify its operating margin percentage for 2023, and there's no contradiction to the ground truth, the response is considered correct because it acknowledges the lack of specific information on the topic.",
 "answer": True
 }</t>
         </is>
@@ -699,94 +699,94 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>How much did Oversea-Chinese Banking Corporation Limited pledge towards achieving its sustainable financing commitments by 2025, and what was the total commitment amount reached by 2022?</t>
+          <t>How many developers had joined HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems by the end of 2023?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OCBC pledged to reach S$50 billion in sustainable finance commitments by 2025 and had reached S$44 billion by 2022.</t>
+          <t>More than 9.5 million developers</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Oversea-Chinese Banking Corporation Limited pledged to achieve $50 billion in sustainable financing commitments by 2025. By 2022, the total commitment amount reached was $44 billion.</t>
+          <t>By the end of 2023, more than 2.2 million developers had joined the HarmonyOS ecosystem, and over six million developers were part of the Huawei Cloud ecosystem. The document does not provide specific figures for the Kunpeng and Ascend ecosystems.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth in terms of the amounts pledged for sustainable financing commitments by 2025 and the total commitment amount reached by 2022. Both specify the same figures: $50 billion pledged by 2025 and $44 billion reached by 2022.", 
-"answer": True
+"reason": "The predicted answer provides specific figures for the HarmonyOS and Huawei Cloud ecosystems but does not include the total number of developers across all four ecosystems mentioned (HarmonyOS, Kunpeng, Ascend, and Huawei Cloud). The ground truth states that more than 9.5 million developers had joined these ecosystems by the end of 2023, which cannot be accurately confirmed or denied based on the provided predicted answer due to the lack of information on Kunpeng and Ascend ecosystems. Therefore, the predicted answer does not directly contradict the ground truth but is incomplete.",
+"answer": False
 }</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What was the geographical area featured on OCBC's 2021 annual report cover, and what special project did OCBC launch there as part of its sustainability efforts according to the 2022 report?</t>
+          <t>By 2022, how many countries and regions was Huawei providing its stable, reliable, secure, trustworthy, and sustainable cloud services to?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The 2021 report featured Guilin, located in Guangxi Province, China, and as part of its sustainability efforts, OCBC gifted two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.</t>
+          <t>More than 170 countries and regions</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sorry, I do not have an accurate answer for this.</t>
+          <t>By 2022, Huawei was providing its cloud services to more than 60 countries and regions.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer indicates an inability to provide specific details requested in the question, which aligns with the protocol for cases where accurate information cannot be found. Therefore, the response is treated as correct according to the rule provided.",
-"answer": True
+"reason": "The predicted answer is incorrect because it states Huawei was providing its cloud services to more than 60 countries and regions, while the ground truth is more than 170 countries and regions.",
+"answer": False
 }</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>./docs\shell-annual-report-2023.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What was Shell plc's income in 2023 compared to 2022?</t>
+          <t>What was Huawei's total liability ratio in 2022 and 2023?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Around $20 billion in 2023 compared to around $43 billion in 2022</t>
+          <t>58.9% in 2022 and 59.8% in 2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Shell plc's income in 2023 was $19,359 million, compared to $42,309 million in 2022.</t>
+          <t>The total liability ratio for Huawei was not explicitly provided for the years 2022 and 2023.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer closely matches the ground truth, providing specific figures that align with the approximate amounts given in the ground truth. The slight difference in the figures is due to the specificity of the predicted answer, which provides exact numbers rather than rounded figures.",
+"reason": "The predicted answer indicates that the specific information requested (Huawei's total liability ratio for 2022 and 2023) was not available in the provided data. This aligns with the scenario where the information cannot be found, thus the response is treated as correct according to the rule.",
 "answer": True
 }</t>
         </is>
@@ -798,28 +798,28 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>./docs\shell-annual-report-2023.pdf</t>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>How much did Shell plc return to shareholders in 2023 through share buybacks and dividends?</t>
+          <t>What was McDonald's global comparable sales growth rate in 2023 compared to 2022?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$23 billion</t>
+          <t>Nearly 11%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>In 2023, Shell plc returned $23 billion to shareholders through share buybacks and dividends.</t>
+          <t>Sorry, I do not have an accurate answer for this.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth answer exactly, stating that Shell plc returned $23 billion to shareholders through share buybacks and dividends in 2023.",
+"reason": "Since the predicted answer indicates a lack of information to provide an accurate response, and it does not contradict the ground truth, it is treated as correct because it acknowledges the inability to provide the specific data requested.",
 "answer": True
 }</t>
         </is>
@@ -831,25 +831,718 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>By how much did McDonald's systemwide sales increase since 2020 by the end of 2022?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nearly $20 billion</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>McDonald's Systemwide sales increased by nearly $30 billion since 2020 by the end of 2022.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer is incorrect because it states that McDonald's systemwide sales increased by nearly $30 billion, while the ground truth is that the increase was nearly $20 billion.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>How many active loyalty users did McDonald’s have in its top six markets by the end of 2022?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Almost 50 million</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>What was the quarterly cash dividend per share announced by McDonald's Board of Directors for March 2024?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$1.67</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>The quarterly cash dividend per share announced by McDonald's Board of Directors for March 2024 was $1.67.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>By the end of 2023, how many active loyalty users was McDonald's connecting with across 50 markets?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>150 million</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>By the end of 2023, McDonald's was connecting with 150 million active loyalty users across 50 markets.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information, stating that McDonald's was connecting with 150 million active loyalty users across 50 markets by the end of 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>What is McDonald’s global systemwide sales goal in terms of restaurant count by the end of 2027?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>50,000 restaurants</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>McDonald's aims to expand its global restaurant count to 50,000 by the end of 2027.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, stating that McDonald's aims to expand its global restaurant count to 50,000 by the end of 2027.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>What was McDonald's global comparable sales growth in 2023?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>McDonald's global comparable sales grew by 9% in 2023.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that McDonald's global comparable sales growth in 2023 was indeed 9%.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>How much did McDonald's global guest counts grow in 2022?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>McDonald's global guest counts grew by 5% in 2022.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>What was McDonald's record global Systemwide sales in 2021?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$112 billion</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>McDonald's record global Systemwide sales in 2021 were $112 billion.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that it is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>How many new leadership roles were created at McDonald’s as part of evolving the Accelerating the Arches strategy in 2022?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Several, including Executive Vice President, Global Chief Marketing Officer and New Business Ventures, and President, Global Business Services</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>The document does not specify the exact number of new leadership roles created at McDonald's as part of evolving the Accelerating the Arches strategy in 2022.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer is correct because it states that the document does not specify the exact number of new leadership roles, which aligns with the ground truth information that mentions several roles without providing a specific number.", 
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>What was Oversea-Chinese Banking Corporation Limited's net profit in 2021 and how did it change in 2022?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>In 2021, the net profit was S$4,858 million, and it rose to S$5.75 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sorry, I do not have an accurate answer for this.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>{
+"reason": "Since the predicted answer indicates an inability to provide the specific financial figures requested, it aligns with the rule that if the response indicates a lack of accurate information, it can be treated as correct. The system correctly acknowledges the absence of specific data in its knowledge base up to its last update.", 
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>How much did Oversea-Chinese Banking Corporation Limited pledge towards achieving its sustainable financing commitments by 2025, and what was the total commitment amount reached by 2022?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>OCBC pledged to reach S$50 billion in sustainable finance commitments by 2025 and had reached S$44 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Oversea-Chinese Banking Corporation Limited pledged to achieve $50 billion in sustainable financing commitments by 2025. By 2022, they had reached a total commitment amount of $44 billion.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth in terms of the amounts pledged for sustainable financing commitments by 2025 and the total commitment amount reached by 2022, which are S$50 billion and S$44 billion, respectively. The currency symbol 'S$' in the ground truth specifies Singapore dollars, which is implied in the predicted answer by the context of the question relating to Oversea-Chinese Banking Corporation Limited, a Singapore-based entity. Therefore, the predicted answer is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>What was the geographical area featured on OCBC's 2021 annual report cover, and what special project did OCBC launch there as part of its sustainability efforts according to the 2022 report?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The 2021 report featured Guilin, located in Guangxi Province, China, and as part of its sustainability efforts, OCBC gifted two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sorry, I do not have an accurate answer for this.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer indicates an inability to provide specific information requested, which aligns with the protocol for cases where the answer cannot be found. Therefore, it is treated as correct according to the rule provided.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>What was Oversea-Chinese Banking Corporation Limited’s dividend per share in 2021 and how much did it increase to in 2022?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The dividend per share was 53 cents in 2021 and increased to 68 cents in 2022.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sorry, I do not have an accurate answer for this.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>{
+"reason": "Since the predicted answer indicates an inability to provide the specific dividend per share information for Oversea-Chinese Banking Corporation Limited for 2021 and 2022, it acknowledges the lack of accurate data available up to the knowledge cutoff. This response is considered correct because it does not provide incorrect information and admits to the limitation in providing the requested details.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>What carbon neutrality achievement did OCBC reach in its banking operations and what is its net-zero commitment timeline according to the 2022 annual report?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>OCBC achieved carbon neutrality in its banking operations in 2022 and committed to reaching net-zero in its lending and investment businesses by 2050.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OCBC achieved carbon neutrality for its banking operational emissions in 2022 and has committed to achieving net-zero emissions by 2050.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer correctly states that OCBC achieved carbon neutrality in its banking operations in 2022 and has committed to achieving net-zero emissions by 2050. It matches the key information provided in the ground truth, including the timeline for achieving net-zero emissions in its lending and investment businesses.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>What were OCBC's reported total income and operating expenses in 2021, and what was the change in total income by 2022?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>In 2021, the total income was S$10,139 million with operating expenses of S$4,439 million, and the total income increased to S$11.7 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>OCBC's reported total income in 2021 was $10.596 billion. The document does not provide specific figures for operating expenses in 2021. By 2022, the total income increased by 10% to $11.7 billion.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides a different figure for OCBC's total income in 2021 ($10.596 billion) compared to the ground truth (S$10,139 million), and it does not provide specific figures for operating expenses in 2021, which were S$4,439 million according to the ground truth. However, both the predicted answer and the ground truth agree on the total income increase to S$11.7 billion by 2022.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>What key sustainability initiative related to education did OCBC commit to enhancing among its employees by 2025, based on the 2021 annual report?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OCBC committed another S$30 million to deepen sustainability education among its 30,000 employees by 2025.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OCBC committed to enhancing sustainability understanding among its employees by 2025 through the OCBC Future Smart Programme, with a focus on deepening knowledge in sustainability and its application in employees' roles.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer does not mention the specific commitment of another S$30 million to deepen sustainability education among its 30,000 employees by 2025, which is a key detail in the ground truth. Instead, it provides a general statement about enhancing sustainability understanding through the OCBC Future Smart Programme. The specific financial commitment and target number of employees are crucial details that are missing from the predicted answer.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>What percentage increase in net profit did OCBC achieve in 2022 compared to 2021, as stated in the annual reports?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OCBC achieved an approximate 18% increase in net profit in 2022 compared to 2021.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OCBC achieved an 18% increase in net profit in 2022 compared to 2021.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating the same percentage increase in net profit for OCBC from 2021 to 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>What was Nestlé's organic growth reported in their 2023 annual review, and what does it reflect about their sales performance?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Nestlé reported a 7.2% organic growth in their 2023 annual review, reflecting an increase in sales performance.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Nestlé's organic growth reported in their 2023 annual review was 7.2%, reflecting strong sales performance despite challenges such as cost inflation.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the key information in the ground truth. Both state that Nestlé reported a 7.2% organic growth in their 2023 annual review, indicating an increase or strong sales performance.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>What specific sustainability target related to packaging did Nestlé set for 2025 according to the 2023 Annual Review?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Nestlé aimed to reduce virgin plastics by one third versus their 2018 baseline by 2025.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sorry, I do not have an accurate answer for this.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>{
+"reason": "Since the predicted answer indicates an inability to provide the specific information requested, and the task rule states that if the response is 'Sorry, I do not have an accurate answer for this.', it means the answer cannot be found, then the answer can be treated as correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>./docs\shell-annual-report-2023.pdf</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>What was Shell plc's income in 2023 compared to 2022?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Around $20 billion in 2023 compared to around $43 billion in 2022</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Shell plc's income in 2023 was $28,250 million, compared to $39,870 million in 2022.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides specific income figures for Shell plc in 2023 and 2022, which are different from the ground truth values. The ground truth states income was around $20 billion in 2023 and around $43 billion in 2022, whereas the predicted answer states $28,250 million ($28.25 billion) in 2023 and $39,870 million ($39.87 billion) in 2022. Therefore, the predicted answer's figures do not match the ground truth.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>How much did Shell plc return to shareholders in 2023 through share buybacks and dividends?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$23 billion</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>In 2023, Shell plc returned $25,778 million to shareholders through share buybacks and dividends.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer is incorrect because the amount returned to shareholders through share buybacks and dividends is stated as $25,778 million, which does not match the ground truth answer of $23 billion.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>How much did Shell plc plan to invest in oil and gas between 2023 and 2025?</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Around $40 billion</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Shell plc planned to invest around $40 billion in oil and gas between 2023 and 2025.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>{
 "reason": "The predicted answer matches the ground truth answer exactly, stating the planned investment amount by Shell plc in oil and gas between 2023 and 2025 as around $40 billion.",
@@ -857,7 +1550,238 @@
 }</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>What was Shell plc's cash flow from operations in 2023 compared to 2022?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Around $54 billion in 2023 compared to more than $68 billion in 2022</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Shell plc's cash flow from operations in 2023 was $54,191 million, compared to $68,414 million in 2022.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides specific figures for Shell plc's cash flow from operations in 2023 and 2022, which align with the ground truth information of around $54 billion in 2023 compared to more than $68 billion in 2022. The specificity of the figures in the predicted answer confirms its accuracy.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>What was the percentage reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>By the end of 2023, Shell plc reduced its total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by 31% compared to 2016 levels.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, stating a 31% reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>By the end of 2023, what percentage of their 2030 target to halve emissions in their own operations had Shell plc achieved compared with 2016 levels?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>More than 60%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>By the end of 2023, Shell plc had achieved more than 60% of their target to halve emissions in their own operations compared with 2016 levels.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information provided, stating that Shell plc had achieved more than 60% of their target to halve emissions in their own operations compared with 2016 levels by the end of 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>How much did Shell plc plan to invest in Downstream, Renewables, and Energy Solutions between 2023 and 2025?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Around $35 billion</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Shell plc planned to invest around $35 billion in Downstream, Renewables, and Energy Solutions between 2023 and 2025.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating the planned investment amount by Shell plc in Downstream, Renewables, and Energy Solutions between 2023 and 2025 as around $35 billion.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>What was Shell plc's Adjusted Earnings in 2023?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Around $28 billion</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Shell plc's Adjusted Earnings in 2023 were $28,250 million.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides a specific figure ($28,250 million) that aligns closely with the ground truth description of 'Around $28 billion'. The specificity in the predicted answer supports its accuracy in reflecting the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>What was Shell plc's workforce size as of December 31, 2023?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Around 103,000 people</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Shell plc employed approximately 103,000 people as of December 31, 2023.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information regarding Shell plc's workforce size as of December 31, 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>What was the amount of cash capital expenditure by Shell plc in 2023?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$24 billion</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>The cash capital expenditure by Shell plc in 2023 was $24,392 million.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides a more precise figure ($24,392 million) which is essentially the same as the ground truth amount when rounded ($24 billion). Therefore, the key information in the predicted answer matches the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>1</v>
       </c>
     </row>
